--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Strathom.Spring.011321-1.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Strathom.Spring.011321-1.xlsx_with_dialog_acts.xlsx
@@ -1525,12 +1525,12 @@
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1651,12 +1651,12 @@
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1693,12 +1693,12 @@
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1735,12 +1735,12 @@
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1861,12 +1861,12 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2323,12 +2323,12 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2365,12 +2365,12 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4339,12 +4339,12 @@
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4381,12 +4381,12 @@
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4549,12 +4549,12 @@
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5095,12 +5095,12 @@
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6145,12 +6145,12 @@
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6859,12 +6859,12 @@
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7571,12 +7571,12 @@
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7781,12 +7781,12 @@
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -8163,12 +8163,12 @@
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8205,12 +8205,12 @@
       <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8247,12 +8247,12 @@
       <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9129,12 +9129,12 @@
       <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10263,12 +10263,12 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10473,12 +10473,12 @@
       <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11019,12 +11019,12 @@
       <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -11523,12 +11523,12 @@
       <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -11985,12 +11985,12 @@
       <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12569,12 +12569,12 @@
       <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12609,12 +12609,12 @@
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12849,12 +12849,12 @@
       <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12969,12 +12969,12 @@
       <c r="H299" t="inlineStr"/>
       <c r="I299" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13489,12 +13489,12 @@
       <c r="H312" t="inlineStr"/>
       <c r="I312" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13689,12 +13689,12 @@
       <c r="H317" t="inlineStr"/>
       <c r="I317" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14009,12 +14009,12 @@
       <c r="H325" t="inlineStr"/>
       <c r="I325" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14049,12 +14049,12 @@
       <c r="H326" t="inlineStr"/>
       <c r="I326" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14329,12 +14329,12 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14369,12 +14369,12 @@
       <c r="H334" t="inlineStr"/>
       <c r="I334" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -14489,12 +14489,12 @@
       <c r="H337" t="inlineStr"/>
       <c r="I337" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14529,12 +14529,12 @@
       <c r="H338" t="inlineStr"/>
       <c r="I338" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -14569,12 +14569,12 @@
       <c r="H339" t="inlineStr"/>
       <c r="I339" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -15527,12 +15527,12 @@
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15567,12 +15567,12 @@
       <c r="H364" t="inlineStr"/>
       <c r="I364" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15607,12 +15607,12 @@
       <c r="H365" t="inlineStr"/>
       <c r="I365" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15967,12 +15967,12 @@
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -16167,12 +16167,12 @@
       <c r="H379" t="inlineStr"/>
       <c r="I379" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J379" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16487,12 +16487,12 @@
       <c r="H387" t="inlineStr"/>
       <c r="I387" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17327,12 +17327,12 @@
       <c r="H408" t="inlineStr"/>
       <c r="I408" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17487,12 +17487,12 @@
       <c r="H412" t="inlineStr"/>
       <c r="I412" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -18287,12 +18287,12 @@
       <c r="H432" t="inlineStr"/>
       <c r="I432" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -18367,12 +18367,12 @@
       <c r="H434" t="inlineStr"/>
       <c r="I434" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18447,12 +18447,12 @@
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18647,12 +18647,12 @@
       <c r="H441" t="inlineStr"/>
       <c r="I441" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J441" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19327,12 +19327,12 @@
       <c r="H458" t="inlineStr"/>
       <c r="I458" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19407,12 +19407,12 @@
       <c r="H460" t="inlineStr"/>
       <c r="I460" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19651,12 +19651,12 @@
       <c r="H466" t="inlineStr"/>
       <c r="I466" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19691,12 +19691,12 @@
       <c r="H467" t="inlineStr"/>
       <c r="I467" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19731,12 +19731,12 @@
       <c r="H468" t="inlineStr"/>
       <c r="I468" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -19811,12 +19811,12 @@
       <c r="H470" t="inlineStr"/>
       <c r="I470" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J470" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20049,12 +20049,12 @@
       <c r="H476" t="inlineStr"/>
       <c r="I476" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20169,12 +20169,12 @@
       <c r="H479" t="inlineStr"/>
       <c r="I479" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J479" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20289,12 +20289,12 @@
       <c r="H482" t="inlineStr"/>
       <c r="I482" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J482" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20369,12 +20369,12 @@
       <c r="H484" t="inlineStr"/>
       <c r="I484" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J484" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20449,12 +20449,12 @@
       <c r="H486" t="inlineStr"/>
       <c r="I486" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J486" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -20649,12 +20649,12 @@
       <c r="H491" t="inlineStr"/>
       <c r="I491" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J491" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -21089,12 +21089,12 @@
       <c r="H502" t="inlineStr"/>
       <c r="I502" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J502" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -21129,12 +21129,12 @@
       <c r="H503" t="inlineStr"/>
       <c r="I503" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J503" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21249,12 +21249,12 @@
       <c r="H506" t="inlineStr"/>
       <c r="I506" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J506" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21529,12 +21529,12 @@
       <c r="H513" t="inlineStr"/>
       <c r="I513" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J513" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21569,12 +21569,12 @@
       <c r="H514" t="inlineStr"/>
       <c r="I514" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J514" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21649,12 +21649,12 @@
       <c r="H516" t="inlineStr"/>
       <c r="I516" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J516" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -21849,12 +21849,12 @@
       <c r="H521" t="inlineStr"/>
       <c r="I521" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J521" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -21969,12 +21969,12 @@
       <c r="H524" t="inlineStr"/>
       <c r="I524" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J524" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
